--- a/tests/testthat/_snaps/knitxl/vector4.xlsx
+++ b/tests/testthat/_snaps/knitxl/vector4.xlsx
@@ -11,16 +11,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">1:3; 4:6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,8 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,32 +353,37 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>6</v>
       </c>
     </row>

--- a/tests/testthat/_snaps/knitxl/vector4.xlsx
+++ b/tests/testthat/_snaps/knitxl/vector4.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -34,6 +34,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,9 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,32 +364,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/tests/testthat/_snaps/knitxl/vector4.xlsx
+++ b/tests/testthat/_snaps/knitxl/vector4.xlsx
@@ -354,7 +354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
